--- a/biology/Botanique/Solanum_villosum/Solanum_villosum.xlsx
+++ b/biology/Botanique/Solanum_villosum/Solanum_villosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum villosum, la Morelle velue, morelle poilue ou morelle orangée est une espèce végétale de la famille des Solanaceae.
 </t>
@@ -513,11 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous-espèces
-Solanum villosum subsp. miniatum (Bernh. ex Willd.) Edmonds, 1984
-Solanum villosum subsp. villosum Mill., 1768
-Synonymie
-Selon ITIS      (9 avril 2016)[1] :
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Solanum villosum subsp. miniatum (Bernh. ex Willd.) Edmonds, 1984
+Solanum villosum subsp. villosum Mill., 1768</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Solanum_villosum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_villosum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (9 avril 2016) :
 Solanum luteum Mill.
 Solanum luteum ssp. alatum (Moench) Dostál
 Solanum alatum Moench
@@ -525,31 +576,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Solanum_villosum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Solanum_villosum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve cette espèce en Europe, Afrique du Nord, Amérique du Nord et aussi en Australie où elle est naturalisée.
 			Fleurs au jardin botanique de Krefeld en Allemagne
@@ -560,31 +613,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Solanum_villosum</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Solanum_villosum</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle atteignant 70 cm recouverte de poils dont la quantité est variable. Les feuilles sont ovales, longues de 8 cm environ et larges de 3 à 6 cm, entières ou faiblement lobées, et dont le pétiole mesure environ 4,5 cm. L'inflorescence est constituée de fleurs groupées par 3 à 8. La corolle est blanche ; elle est suivie par des baies globuleuses orangées toxiques de 5 à 9 mm de diamètre. Les graines jaune pâle varient de 1,7 à 2,3 mm. 
 </t>
